--- a/Peso_seco.xlsx
+++ b/Peso_seco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a3a3d8dab1e5321a/Desktop/CONI/Cursos/Programacion y estadistica/trabajo_final_rey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="13_ncr:1_{9555AC96-BBB3-4A46-8C46-14D9B5D2AEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DE82D01-FE5A-43EC-BF88-461B560B353B}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:1_{9555AC96-BBB3-4A46-8C46-14D9B5D2AEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4F0B245-A511-45FD-A920-CE77D1FF9566}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{53B9020F-AAD8-474F-9329-910E0E692653}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="22">
   <si>
     <t>Ensayo del 7/03/22</t>
   </si>
@@ -3979,1980 +3979,1443 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773ED3A1-0F88-4E4E-AFD4-AA86E7D378D0}">
-  <dimension ref="A1:C179"/>
+  <dimension ref="A1:B179"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="8">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="8">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="8">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="8">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="8">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="8">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="8">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="8">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="8">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="8">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="B21" s="8">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="B22" s="8">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="8">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="8">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="8">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="8">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="8">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="8">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="8">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="8">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B23" s="8">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="8">
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="8">
+        <v>50.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="8">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="8">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="8">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="8">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="8">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="8">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="8">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="8">
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="8">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="8">
+        <v>54.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="8">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="8">
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="8">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="8">
+        <v>40.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="8">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="8">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="8">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="8">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="8">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="8">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="8">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="8">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="8">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="8">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="8">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="8">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="8">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="8">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="8">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="8">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="8">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="8">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="8">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" s="8">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" s="8">
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="8">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" s="8">
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" s="8">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="8">
+        <v>54.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="8">
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="8">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="8">
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" s="9">
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" s="8">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" s="8">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" s="8">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="8">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" s="8">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="8">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" s="8">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" s="8">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" s="8">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" s="8">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" s="8">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" s="8">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" s="8">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" s="8">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" s="8">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" s="8">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" s="8">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" s="8">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" s="8">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93" s="8">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" s="8">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" s="8">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96" s="8">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97" s="8">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98" s="8">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" s="8">
+        <v>64.099999999999994</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B100" s="8">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B101" s="8">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B102" s="8">
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B103" s="8">
         <v>13</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="8">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="8">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="8">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="8">
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="8">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="8">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="8">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="8">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="8">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B104" s="8">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105" s="8">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B106" s="8">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B107" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B108" s="8">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B109" s="8">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110" s="8">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B111" s="8">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112" s="8">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B113" s="8">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B114" s="8">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B115" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B116" s="8">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B117" s="8">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B118" s="8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B119" s="8">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B120" s="8">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B121" s="8">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B122" s="8">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B123" s="8">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B124" s="8">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B125" s="8">
+        <v>75.2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B126" s="8">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127" s="8">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B128" s="8">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B129" s="8">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B130" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B131" s="8">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B132" s="8">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B133" s="8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B134" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B135" s="8">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B136" s="8">
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B137" s="8">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B138" s="8">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B139" s="8">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B140" s="8">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B141" s="8">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B142" s="8">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B143" s="8">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B144" s="8">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B145" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B146" s="8">
+        <v>77.2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B147" s="8">
+        <v>173.4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B148" s="8">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B149" s="8">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B150" s="8">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B151" s="8">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B152" s="8">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B153" s="8">
+        <v>75.099999999999994</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B154" s="8">
+        <v>112.6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B155" s="8">
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B156" s="8">
+        <v>69.7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B157" s="8">
+        <v>57.1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B158" s="8">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B159" s="8">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B160" s="8">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B161" s="8">
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B162" s="8">
+        <v>86.2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B163" s="8">
+        <v>107.2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B164" s="8">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B165" s="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B166" s="8">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B167" s="8">
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B168" s="8">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B169" s="8">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B170" s="8">
         <v>7.3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="8">
-        <v>48.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="8">
-        <v>50.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="8">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="8">
-        <v>23.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="8">
-        <v>45.1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="8">
-        <v>39.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="8">
-        <v>21.3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="8">
-        <v>37.200000000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="8">
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="8">
-        <v>32.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="8">
-        <v>54.7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="8">
-        <v>16.899999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="8">
-        <v>54.4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="8">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="8">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="8">
-        <v>68.900000000000006</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="8">
-        <v>41.7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="8">
-        <v>40.6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="8">
-        <v>25.7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="8">
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="8">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B171" s="8">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B172" s="8">
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B173" s="8">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B174" s="8">
         <v>72.5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="8">
-        <v>55.9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="8">
-        <v>23.1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="8">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="8">
-        <v>37.1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="8">
-        <v>24.9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="8">
-        <v>92.7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="8">
-        <v>41.4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="8">
-        <v>26.3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="8">
-        <v>45.2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="8">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="8">
-        <v>16.7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="8">
-        <v>19.3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="8">
-        <v>17.8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="8">
-        <v>26.1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="8">
-        <v>38.9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="8">
-        <v>33.9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="8">
-        <v>29.7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="8">
-        <v>48.7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" s="8">
-        <v>33.700000000000003</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="8">
-        <v>48.1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" s="8">
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" s="8">
-        <v>54.8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" s="8">
-        <v>42.7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="8">
-        <v>31.6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="8">
-        <v>51.3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" s="9">
-        <v>37.9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>12</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72" s="8">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>12</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" s="8">
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>12</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C74" s="8">
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>12</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>12</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C76" s="8">
-        <v>16.100000000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>12</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77" s="8">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>12</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C78" s="8">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>12</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" s="8">
-        <v>26.1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>12</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="8">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>12</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C81" s="8">
-        <v>20.8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>12</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C82" s="8">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>12</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C83" s="8">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C84" s="8">
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C85" s="8">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C86" s="8">
-        <v>23.7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>13</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C87" s="8">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>13</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C88" s="8">
-        <v>26.9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>13</v>
-      </c>
-      <c r="B89" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C89" s="8">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>13</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C90" s="8">
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>13</v>
-      </c>
-      <c r="B91" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C91" s="8">
-        <v>17.3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>13</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C92" s="8">
-        <v>36.4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>13</v>
-      </c>
-      <c r="B93" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C93" s="8">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>13</v>
-      </c>
-      <c r="B94" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C94" s="8">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>13</v>
-      </c>
-      <c r="B95" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C95" s="8">
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>12</v>
-      </c>
-      <c r="B96" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C96" s="8">
-        <v>21.9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>12</v>
-      </c>
-      <c r="B97" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C97" s="8">
-        <v>18.600000000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>12</v>
-      </c>
-      <c r="B98" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C98" s="8">
-        <v>21.3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>12</v>
-      </c>
-      <c r="B99" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C99" s="8">
-        <v>64.099999999999994</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>12</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C100" s="8">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>12</v>
-      </c>
-      <c r="B101" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C101" s="8">
-        <v>35.799999999999997</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>12</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C102" s="8">
-        <v>48.7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>12</v>
-      </c>
-      <c r="B103" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C103" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>12</v>
-      </c>
-      <c r="B104" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C104" s="8">
-        <v>26.6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>12</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C105" s="8">
-        <v>28.1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>12</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C106" s="8">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>12</v>
-      </c>
-      <c r="B107" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C107" s="8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>13</v>
-      </c>
-      <c r="B108" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C108" s="8">
-        <v>24.1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C109" s="8">
-        <v>27.6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>13</v>
-      </c>
-      <c r="B110" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C110" s="8">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>13</v>
-      </c>
-      <c r="B111" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C111" s="8">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>13</v>
-      </c>
-      <c r="B112" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C112" s="8">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>13</v>
-      </c>
-      <c r="B113" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C113" s="8">
-        <v>31.8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>13</v>
-      </c>
-      <c r="B114" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C114" s="8">
-        <v>18.899999999999999</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>13</v>
-      </c>
-      <c r="B115" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C115" s="8">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>13</v>
-      </c>
-      <c r="B116" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C116" s="8">
-        <v>43.6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>13</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C117" s="8">
-        <v>37.1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>13</v>
-      </c>
-      <c r="B118" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C118" s="8">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>12</v>
-      </c>
-      <c r="B119" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C119" s="8">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>12</v>
-      </c>
-      <c r="B120" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C120" s="8">
-        <v>35.1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>12</v>
-      </c>
-      <c r="B121" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C121" s="8">
-        <v>33.299999999999997</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>12</v>
-      </c>
-      <c r="B122" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C122" s="8">
-        <v>28.8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>12</v>
-      </c>
-      <c r="B123" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C123" s="8">
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>12</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C124" s="8">
-        <v>16.100000000000001</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>12</v>
-      </c>
-      <c r="B125" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C125" s="8">
-        <v>75.2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>12</v>
-      </c>
-      <c r="B126" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C126" s="8">
-        <v>25.4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>12</v>
-      </c>
-      <c r="B127" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C127" s="8">
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>13</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C128" s="8">
-        <v>55.5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>13</v>
-      </c>
-      <c r="B129" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C129" s="8">
-        <v>40.299999999999997</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>13</v>
-      </c>
-      <c r="B130" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C130" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>13</v>
-      </c>
-      <c r="B131" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C131" s="8">
-        <v>16.7</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>13</v>
-      </c>
-      <c r="B132" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C132" s="8">
-        <v>16.7</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>13</v>
-      </c>
-      <c r="B133" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C133" s="8">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>13</v>
-      </c>
-      <c r="B134" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C134" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>13</v>
-      </c>
-      <c r="B135" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C135" s="8">
-        <v>20.3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>13</v>
-      </c>
-      <c r="B136" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C136" s="8">
-        <v>42.9</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>12</v>
-      </c>
-      <c r="B137" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C137" s="8">
-        <v>26.2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>12</v>
-      </c>
-      <c r="B138" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C138" s="8">
-        <v>25.9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>12</v>
-      </c>
-      <c r="B139" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C139" s="8">
-        <v>12.9</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>12</v>
-      </c>
-      <c r="B140" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C140" s="8">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>12</v>
-      </c>
-      <c r="B141" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C141" s="8">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>12</v>
-      </c>
-      <c r="B142" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C142" s="8">
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>12</v>
-      </c>
-      <c r="B143" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C143" s="8">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>12</v>
-      </c>
-      <c r="B144" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C144" s="8">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>12</v>
-      </c>
-      <c r="B145" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C145" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>12</v>
-      </c>
-      <c r="B146" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C146" s="8">
-        <v>77.2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>12</v>
-      </c>
-      <c r="B147" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C147" s="8">
-        <v>173.4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>13</v>
-      </c>
-      <c r="B148" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C148" s="8">
-        <v>25.6</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>13</v>
-      </c>
-      <c r="B149" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C149" s="8">
-        <v>31.9</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>13</v>
-      </c>
-      <c r="B150" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C150" s="8">
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>13</v>
-      </c>
-      <c r="B151" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C151" s="8">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>13</v>
-      </c>
-      <c r="B152" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C152" s="8">
-        <v>58.6</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>13</v>
-      </c>
-      <c r="B153" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C153" s="8">
-        <v>75.099999999999994</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>13</v>
-      </c>
-      <c r="B154" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C154" s="8">
-        <v>112.6</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>13</v>
-      </c>
-      <c r="B155" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C155" s="8">
-        <v>72.400000000000006</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>13</v>
-      </c>
-      <c r="B156" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C156" s="8">
-        <v>69.7</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>13</v>
-      </c>
-      <c r="B157" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C157" s="8">
-        <v>57.1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>12</v>
-      </c>
-      <c r="B158" s="12" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C158" s="8">
-        <v>63.6</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>12</v>
-      </c>
-      <c r="B159" s="12" t="s">
+      <c r="B175" s="8">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C159" s="8">
-        <v>24.1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>12</v>
-      </c>
-      <c r="B160" s="12" t="s">
+      <c r="B176" s="8">
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C160" s="8">
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>12</v>
-      </c>
-      <c r="B161" s="12" t="s">
+      <c r="B177" s="8">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C161" s="8">
-        <v>37.9</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>12</v>
-      </c>
-      <c r="B162" s="12" t="s">
+      <c r="B178" s="8">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C162" s="8">
-        <v>86.2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>12</v>
-      </c>
-      <c r="B163" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C163" s="8">
-        <v>107.2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>12</v>
-      </c>
-      <c r="B164" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C164" s="8">
-        <v>55.1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>12</v>
-      </c>
-      <c r="B165" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C165" s="8">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>12</v>
-      </c>
-      <c r="B166" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C166" s="8">
-        <v>60.3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>12</v>
-      </c>
-      <c r="B167" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C167" s="8">
-        <v>37.700000000000003</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>12</v>
-      </c>
-      <c r="B168" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C168" s="8">
-        <v>58.1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>13</v>
-      </c>
-      <c r="B169" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C169" s="8">
-        <v>40.1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>13</v>
-      </c>
-      <c r="B170" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C170" s="8">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>13</v>
-      </c>
-      <c r="B171" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C171" s="8">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>13</v>
-      </c>
-      <c r="B172" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C172" s="8">
-        <v>32.6</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>13</v>
-      </c>
-      <c r="B173" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C173" s="8">
-        <v>13.7</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>13</v>
-      </c>
-      <c r="B174" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C174" s="8">
-        <v>72.5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>13</v>
-      </c>
-      <c r="B175" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C175" s="8">
-        <v>39.200000000000003</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>13</v>
-      </c>
-      <c r="B176" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C176" s="8">
-        <v>74.8</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>13</v>
-      </c>
-      <c r="B177" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C177" s="8">
-        <v>47.8</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>13</v>
-      </c>
-      <c r="B178" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C178" s="8">
-        <v>40.4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>13</v>
-      </c>
-      <c r="B179" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C179" s="8">
+      <c r="B179" s="8">
         <v>33.1</v>
       </c>
     </row>

--- a/Peso_seco.xlsx
+++ b/Peso_seco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a3a3d8dab1e5321a/Desktop/CONI/Cursos/Programacion y estadistica/trabajo_final_rey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:1_{9555AC96-BBB3-4A46-8C46-14D9B5D2AEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4F0B245-A511-45FD-A920-CE77D1FF9566}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="13_ncr:1_{9555AC96-BBB3-4A46-8C46-14D9B5D2AEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40B3B60C-C2F6-4825-9025-2EF8DCE1BA26}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{53B9020F-AAD8-474F-9329-910E0E692653}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="22">
   <si>
     <t>Ensayo del 7/03/22</t>
   </si>
@@ -3979,1443 +3979,1980 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773ED3A1-0F88-4E4E-AFD4-AA86E7D378D0}">
-  <dimension ref="A1:B179"/>
+  <dimension ref="A1:C179"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="A180" sqref="A180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="8">
+      <c r="C2" s="8">
         <v>5.3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="8">
+      <c r="C3" s="8">
         <v>10.9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="8">
+      <c r="C4" s="8">
         <v>3.8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8">
+      <c r="C5" s="8">
         <v>8.4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="8">
+      <c r="C6" s="8">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="8">
+      <c r="C7" s="8">
         <v>8.4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="8">
+      <c r="C8" s="8">
         <v>9.6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="8">
+      <c r="C9" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8">
+      <c r="C10" s="8">
         <v>3.7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8">
+      <c r="C11" s="8">
         <v>10.1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="8">
+      <c r="C12" s="8">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="8">
+      <c r="C13" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="8">
+      <c r="C14" s="8">
         <v>7.4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="8">
+      <c r="C15" s="8">
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="8">
+      <c r="C16" s="8">
         <v>7.6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="8">
+      <c r="C17" s="8">
         <v>10.3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="8">
+      <c r="C18" s="8">
         <v>6.2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="8">
+      <c r="C19" s="8">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="8">
+      <c r="C20" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="8">
+      <c r="C21" s="8">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="8">
+      <c r="C22" s="8">
         <v>10.1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="8">
+      <c r="C23" s="8">
         <v>7.3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="8">
+      <c r="C24" s="8">
         <v>48.7</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="8">
+      <c r="C25" s="8">
         <v>50.6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="8">
+      <c r="C26" s="8">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="8">
+      <c r="C27" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="8">
+      <c r="C28" s="8">
         <v>23.3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="8">
+      <c r="C29" s="8">
         <v>45.1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="8">
+      <c r="C30" s="8">
         <v>39.6</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="8">
+      <c r="C31" s="8">
         <v>21.3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="8">
+      <c r="C32" s="8">
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="8">
+      <c r="C33" s="8">
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="8">
+      <c r="C34" s="8">
         <v>32.4</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="8">
+      <c r="C35" s="8">
         <v>54.7</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="8">
+      <c r="C36" s="8">
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="8">
+      <c r="C37" s="8">
         <v>54.4</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="8">
+      <c r="C38" s="8">
         <v>7.7</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="8">
+      <c r="C39" s="8">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="8">
+      <c r="C40" s="8">
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="8">
+      <c r="C41" s="8">
         <v>41.7</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="8">
+      <c r="C42" s="8">
         <v>40.6</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="8">
+      <c r="C43" s="8">
         <v>25.7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="8">
+      <c r="C44" s="8">
         <v>34.4</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="8">
+      <c r="C45" s="8">
         <v>72.5</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="8">
+      <c r="C46" s="8">
         <v>55.9</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="8">
+      <c r="C47" s="8">
         <v>23.1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="8">
+      <c r="C48" s="8">
         <v>22.5</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="8">
+      <c r="C49" s="8">
         <v>37.1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="11" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="8">
+      <c r="C50" s="8">
         <v>24.9</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="11" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="8">
+      <c r="C51" s="8">
         <v>92.7</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="11" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B52" s="8">
+      <c r="C52" s="8">
         <v>41.4</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="11" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="8">
+      <c r="C53" s="8">
         <v>26.3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="11" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="8">
+      <c r="C54" s="8">
         <v>45.2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="8">
+      <c r="C55" s="8">
         <v>13.4</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="8">
+      <c r="C56" s="8">
         <v>16.7</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="11" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="8">
+      <c r="C57" s="8">
         <v>19.3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="11" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B58" s="8">
+      <c r="C58" s="8">
         <v>17.8</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="11" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="8">
+      <c r="C59" s="8">
         <v>26.1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="11" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B60" s="8">
+      <c r="C60" s="8">
         <v>38.9</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="11" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B61" s="8">
+      <c r="C61" s="8">
         <v>33.9</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="11" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="8">
+      <c r="C62" s="8">
         <v>29.7</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="11" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="8">
+      <c r="C63" s="8">
         <v>48.7</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="11" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B64" s="8">
+      <c r="C64" s="8">
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="11" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B65" s="8">
+      <c r="C65" s="8">
         <v>48.1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="11" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B66" s="8">
+      <c r="C66" s="8">
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="11" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="8">
+      <c r="C67" s="8">
         <v>54.8</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="11" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="8">
+      <c r="C68" s="8">
         <v>42.7</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="11" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="8">
+      <c r="C69" s="8">
         <v>31.6</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="11" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="8">
+      <c r="C70" s="8">
         <v>51.3</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="11" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="9">
+      <c r="C71" s="9">
         <v>37.9</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="12" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B72" s="8">
+      <c r="C72" s="8">
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="12" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B73" s="8">
+      <c r="C73" s="8">
         <v>20.7</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="12" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B74" s="8">
+      <c r="C74" s="8">
         <v>22.9</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="12" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B75" s="8">
+      <c r="C75" s="8">
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="12" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="8">
+      <c r="C76" s="8">
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="12" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B77" s="8">
+      <c r="C77" s="8">
         <v>18.5</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="12" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B78" s="8">
+      <c r="C78" s="8">
         <v>9.5</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="12" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B79" s="8">
+      <c r="C79" s="8">
         <v>26.1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="12" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B80" s="8">
+      <c r="C80" s="8">
         <v>12.1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="12" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B81" s="8">
+      <c r="C81" s="8">
         <v>20.8</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="12" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B82" s="8">
+      <c r="C82" s="8">
         <v>14.4</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="12" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B83" s="8">
+      <c r="C83" s="8">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="12" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B84" s="8">
+      <c r="C84" s="8">
         <v>13.9</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="12" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B85" s="8">
+      <c r="C85" s="8">
         <v>19.5</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="12" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B86" s="8">
+      <c r="C86" s="8">
         <v>23.7</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="12" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="8">
+      <c r="C87" s="8">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="12" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B88" s="8">
+      <c r="C88" s="8">
         <v>26.9</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="12" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B89" s="8">
+      <c r="C89" s="8">
         <v>14.8</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="12" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="8">
+      <c r="C90" s="8">
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="12" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B91" s="8">
+      <c r="C91" s="8">
         <v>17.3</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="12" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B92" s="8">
+      <c r="C92" s="8">
         <v>36.4</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="12" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B93" s="8">
+      <c r="C93" s="8">
         <v>13.2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="12" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B94" s="8">
+      <c r="C94" s="8">
         <v>10.8</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="12" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B95" s="8">
+      <c r="C95" s="8">
         <v>18.7</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="12" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B96" s="8">
+      <c r="C96" s="8">
         <v>21.9</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="12" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B97" s="8">
+      <c r="C97" s="8">
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="12" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B98" s="8">
+      <c r="C98" s="8">
         <v>21.3</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="12" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B99" s="8">
+      <c r="C99" s="8">
         <v>64.099999999999994</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="12" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B100" s="8">
+      <c r="C100" s="8">
         <v>14.7</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="12" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B101" s="8">
+      <c r="C101" s="8">
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="12" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B102" s="8">
+      <c r="C102" s="8">
         <v>48.7</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="12" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B103" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="12" t="s">
+      <c r="C103" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B104" s="8">
+      <c r="C104" s="8">
         <v>26.6</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="12" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B105" s="8">
+      <c r="C105" s="8">
         <v>28.1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="12" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B106" s="8">
+      <c r="C106" s="8">
         <v>12.3</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="12" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B107" s="8">
+      <c r="C107" s="8">
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="12" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B108" s="8">
+      <c r="C108" s="8">
         <v>24.1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="12" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B109" s="8">
+      <c r="C109" s="8">
         <v>27.6</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="12" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B110" s="8">
+      <c r="C110" s="8">
         <v>10.8</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="12" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B111" s="8">
+      <c r="C111" s="8">
         <v>22.2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="12" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B112" s="8">
+      <c r="C112" s="8">
         <v>25.1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="12" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B113" s="8">
+      <c r="C113" s="8">
         <v>31.8</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="12" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B114" s="8">
+      <c r="C114" s="8">
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="12" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B115" s="8">
+      <c r="C115" s="8">
         <v>64</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="12" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B116" s="8">
+      <c r="C116" s="8">
         <v>43.6</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="12" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B117" s="8">
+      <c r="C117" s="8">
         <v>37.1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="12" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B118" s="8">
+      <c r="C118" s="8">
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="12" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B119" s="8">
+      <c r="C119" s="8">
         <v>14.1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="12" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B120" s="8">
+      <c r="C120" s="8">
         <v>35.1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="12" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B121" s="8">
+      <c r="C121" s="8">
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="12" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>12</v>
+      </c>
+      <c r="B122" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B122" s="8">
+      <c r="C122" s="8">
         <v>28.8</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="12" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B123" s="8">
+      <c r="C123" s="8">
         <v>13.9</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="12" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B124" s="8">
+      <c r="C124" s="8">
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="12" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B125" s="8">
+      <c r="C125" s="8">
         <v>75.2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="12" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B126" s="8">
+      <c r="C126" s="8">
         <v>25.4</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="12" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>13</v>
+      </c>
+      <c r="B127" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B127" s="8">
+      <c r="C127" s="8">
         <v>52.5</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="12" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B128" s="8">
+      <c r="C128" s="8">
         <v>55.5</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="12" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B129" s="8">
+      <c r="C129" s="8">
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="12" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B130" s="8">
+      <c r="C130" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="12" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B131" s="8">
+      <c r="C131" s="8">
         <v>16.7</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="12" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B132" s="8">
+      <c r="C132" s="8">
         <v>16.7</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="12" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B133" s="8">
+      <c r="C133" s="8">
         <v>23</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="12" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B134" s="8">
+      <c r="C134" s="8">
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="12" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B135" s="8">
+      <c r="C135" s="8">
         <v>20.3</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="12" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B136" s="8">
+      <c r="C136" s="8">
         <v>42.9</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="12" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B137" s="8">
+      <c r="C137" s="8">
         <v>26.2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="12" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B138" s="8">
+      <c r="C138" s="8">
         <v>25.9</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="12" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B139" s="8">
+      <c r="C139" s="8">
         <v>12.9</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="12" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B140" s="8">
+      <c r="C140" s="8">
         <v>6.3</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="12" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B141" s="8">
+      <c r="C141" s="8">
         <v>19.5</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="12" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B142" s="8">
+      <c r="C142" s="8">
         <v>32.5</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="12" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B143" s="8">
+      <c r="C143" s="8">
         <v>6.5</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="12" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B144" s="8">
+      <c r="C144" s="8">
         <v>23.5</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="12" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B145" s="8">
+      <c r="C145" s="8">
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="12" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B146" s="8">
+      <c r="C146" s="8">
         <v>77.2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="12" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B147" s="8">
+      <c r="C147" s="8">
         <v>173.4</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="12" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B148" s="8">
+      <c r="C148" s="8">
         <v>25.6</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="12" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B149" s="8">
+      <c r="C149" s="8">
         <v>31.9</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="12" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B150" s="8">
+      <c r="C150" s="8">
         <v>18.2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="12" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B151" s="8">
+      <c r="C151" s="8">
         <v>17.2</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="12" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B152" s="8">
+      <c r="C152" s="8">
         <v>58.6</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="12" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B153" s="8">
+      <c r="C153" s="8">
         <v>75.099999999999994</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="12" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B154" s="8">
+      <c r="C154" s="8">
         <v>112.6</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="12" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>13</v>
+      </c>
+      <c r="B155" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B155" s="8">
+      <c r="C155" s="8">
         <v>72.400000000000006</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="12" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B156" s="8">
+      <c r="C156" s="8">
         <v>69.7</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="12" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B157" s="8">
+      <c r="C157" s="8">
         <v>57.1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="12" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B158" s="8">
+      <c r="C158" s="8">
         <v>63.6</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="12" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>12</v>
+      </c>
+      <c r="B159" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B159" s="8">
+      <c r="C159" s="8">
         <v>24.1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="12" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>12</v>
+      </c>
+      <c r="B160" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B160" s="8">
+      <c r="C160" s="8">
         <v>34.4</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="12" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B161" s="8">
+      <c r="C161" s="8">
         <v>37.9</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="12" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B162" s="8">
+      <c r="C162" s="8">
         <v>86.2</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="12" t="s">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B163" s="8">
+      <c r="C163" s="8">
         <v>107.2</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="12" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B164" s="8">
+      <c r="C164" s="8">
         <v>55.1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="12" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B165" s="8">
+      <c r="C165" s="8">
         <v>33</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="12" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B166" s="8">
+      <c r="C166" s="8">
         <v>60.3</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="12" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>12</v>
+      </c>
+      <c r="B167" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B167" s="8">
+      <c r="C167" s="8">
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="12" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B168" s="8">
+      <c r="C168" s="8">
         <v>58.1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="12" t="s">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>13</v>
+      </c>
+      <c r="B169" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B169" s="8">
+      <c r="C169" s="8">
         <v>40.1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="12" t="s">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B170" s="8">
+      <c r="C170" s="8">
         <v>7.3</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="12" t="s">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>13</v>
+      </c>
+      <c r="B171" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B171" s="8">
+      <c r="C171" s="8">
         <v>4.8</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="12" t="s">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>13</v>
+      </c>
+      <c r="B172" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B172" s="8">
+      <c r="C172" s="8">
         <v>32.6</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="12" t="s">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>13</v>
+      </c>
+      <c r="B173" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B173" s="8">
+      <c r="C173" s="8">
         <v>13.7</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="12" t="s">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>13</v>
+      </c>
+      <c r="B174" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B174" s="8">
+      <c r="C174" s="8">
         <v>72.5</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="12" t="s">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>13</v>
+      </c>
+      <c r="B175" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B175" s="8">
+      <c r="C175" s="8">
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="12" t="s">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>13</v>
+      </c>
+      <c r="B176" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B176" s="8">
+      <c r="C176" s="8">
         <v>74.8</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="12" t="s">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>13</v>
+      </c>
+      <c r="B177" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B177" s="8">
+      <c r="C177" s="8">
         <v>47.8</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="12" t="s">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>13</v>
+      </c>
+      <c r="B178" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B178" s="8">
+      <c r="C178" s="8">
         <v>40.4</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="12" t="s">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B179" s="8">
+      <c r="C179" s="8">
         <v>33.1</v>
       </c>
     </row>

--- a/Peso_seco.xlsx
+++ b/Peso_seco.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a3a3d8dab1e5321a/Desktop/CONI/Cursos/Programacion y estadistica/trabajo_final_rey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="13_ncr:1_{9555AC96-BBB3-4A46-8C46-14D9B5D2AEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40B3B60C-C2F6-4825-9025-2EF8DCE1BA26}"/>
+  <xr:revisionPtr revIDLastSave="224" documentId="13_ncr:1_{9555AC96-BBB3-4A46-8C46-14D9B5D2AEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47F6E838-8EE8-4FC3-A2DC-22F77C0107E7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{53B9020F-AAD8-474F-9329-910E0E692653}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{53B9020F-AAD8-474F-9329-910E0E692653}"/>
   </bookViews>
   <sheets>
     <sheet name="07-03-22" sheetId="1" r:id="rId1"/>
     <sheet name="04-04-22" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
     <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="23">
   <si>
     <t>Ensayo del 7/03/22</t>
   </si>
@@ -104,6 +105,9 @@
   </si>
   <si>
     <t>Sma(B401)</t>
+  </si>
+  <si>
+    <t>Peso nodulos promedio</t>
   </si>
 </sst>
 </file>
@@ -227,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -275,6 +279,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3981,8 +3988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773ED3A1-0F88-4E4E-AFD4-AA86E7D378D0}">
   <dimension ref="A1:C179"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="A180" sqref="A180"/>
+    <sheetView showFormulas="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5960,4 +5967,225 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4297A5EF-98FD-4B55-A9C3-34E0FF04C5A9}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>10</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>21.5</v>
+      </c>
+      <c r="B3" s="19">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>22.6</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>23.4</v>
+      </c>
+      <c r="B5" s="19">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>28.8</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>34.4</v>
+      </c>
+      <c r="B7" s="19">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="B8" s="19">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>36.1</v>
+      </c>
+      <c r="B9" s="19">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="B10" s="19">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>40.9</v>
+      </c>
+      <c r="B11" s="19">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>41.2</v>
+      </c>
+      <c r="B12" s="19">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>41.7</v>
+      </c>
+      <c r="B13" s="19">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>43.2</v>
+      </c>
+      <c r="B14" s="19">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>44.6</v>
+      </c>
+      <c r="B15" s="19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>46.8</v>
+      </c>
+      <c r="B16" s="19">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>47.4</v>
+      </c>
+      <c r="B17" s="19">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>48</v>
+      </c>
+      <c r="B18" s="19">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>50.2</v>
+      </c>
+      <c r="B19" s="19">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>51.4</v>
+      </c>
+      <c r="B20" s="19">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>52.7</v>
+      </c>
+      <c r="B21" s="19">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>63.1</v>
+      </c>
+      <c r="B22" s="19">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="B23" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="B24" s="19">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>104.2</v>
+      </c>
+      <c r="B25" s="19">
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+    <sortCondition ref="A2:A26"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>